--- a/data/occupation-stats-field-descriptions.xlsx
+++ b/data/occupation-stats-field-descriptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jackie Dong\OneDrive - University of Southern California\USC\USC Data Analytics Bootcamp\Perfect-Career-Builder\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_B9265F44BFDD35E8D7C0C0D44DEFC224C4B770F3" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{ED89330E-8D8E-49F7-BF1F-3EA07B9B8C31}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_B9265F44BFDD35E8D7C0C0D44DEFC224C4B770F3" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{0D0E3D84-A095-4DFF-B815-720868872FC5}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,11 +396,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,8 +745,8 @@
   </sheetPr>
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -786,10 +786,10 @@
       <c r="B6" s="13"/>
     </row>
     <row r="8" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="24"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
@@ -891,7 +891,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" s="7" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -923,15 +923,15 @@
       </c>
     </row>
     <row r="26" spans="1:2" s="7" customFormat="1" ht="25.9" x14ac:dyDescent="0.4">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="23" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:2" s="7" customFormat="1" ht="64.150000000000006" x14ac:dyDescent="0.4">
+      <c r="A27" s="23" t="s">
         <v>70</v>
       </c>
       <c r="B27" s="2" t="s">
